--- a/tests/data/sample_st_abs_v1.xlsx
+++ b/tests/data/sample_st_abs_v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/msi/tests/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB350A8-EB9D-8242-99A1-6D9651F20B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F8CA57-A26A-C848-A55B-DF17B22C382C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8900" yWindow="3780" windowWidth="25160" windowHeight="16200" xr2:uid="{E8268F29-D532-4F4A-8DC7-DD2C0037AE91}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="63">
   <si>
     <t>parameter</t>
   </si>
@@ -612,7 +612,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -858,10 +858,18 @@
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="A17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2500</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>

--- a/tests/data/sample_st_abs_v1.xlsx
+++ b/tests/data/sample_st_abs_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F8CA57-A26A-C848-A55B-DF17B22C382C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34245662-C6C6-1E46-BC9E-73F2E2974A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8900" yWindow="3780" windowWidth="25160" windowHeight="16200" xr2:uid="{E8268F29-D532-4F4A-8DC7-DD2C0037AE91}"/>
+    <workbookView xWindow="8900" yWindow="3780" windowWidth="25160" windowHeight="16200" activeTab="1" xr2:uid="{E8268F29-D532-4F4A-8DC7-DD2C0037AE91}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -611,7 +611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E566FD-7BF3-F74E-98A5-DE111CAFB7E0}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFA5EEB-3993-0F42-AC73-AA3A7F46C27C}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
